--- a/outputs/Spotify_Playlist_Export.xlsx
+++ b/outputs/Spotify_Playlist_Export.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,540 +456,783 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Namo Namo</t>
+          <t>ASAP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amit Trivedi</t>
+          <t>STAYC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kedarnath (Original Motion Picture Soundtrack)</t>
+          <t>STAYDOM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5:22</t>
+          <t>3:14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Laagi Lagan Shankara</t>
+          <t>Sticker</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hansraj Raghuwanshi</t>
+          <t>NCT 127</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Laagi Lagan Shankara</t>
+          <t>Sticker - The 3rd Album</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3:56</t>
+          <t>3:47</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Har Har Shambhu Shiv Mahadeva</t>
+          <t>Lucid Dream</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeetu Sharma, Abhilipsa Panda</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Har Har Shambhu Shiv Mahadeva</t>
+          <t>Savage - The 1st Mini Album</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5:59</t>
+          <t>3:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shiv Tandav Stotram</t>
+          <t>The Eve</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shankar Mahadevan</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shiv Tandav Stotram</t>
+          <t>THE WAR - The 4th Album</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9:13</t>
+          <t>2:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mere Baba</t>
+          <t>Shangri-La</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jubin Nautiyal, Payal Dev, Manoj Muntashir</t>
+          <t>VIXX</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mere Baba</t>
+          <t>EAU DE VIXX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4:00</t>
+          <t>3:22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ganga Dharay Shiv Ganga Dharay</t>
+          <t>exile (feat. Bon Iver)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sundeep Gosswami, Kanchhan Srivas</t>
+          <t>Taylor Swift, Bon Iver</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ganga Dharay Shiv Ganga Dharay</t>
+          <t>folklore</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4:34</t>
+          <t>4:45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jai Kaal Mahakaal</t>
+          <t>HANN (Alone in winter)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Manan Bhardwaj</t>
+          <t>i-dle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jai Kaal Mahakaal</t>
+          <t>I burn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3:27</t>
+          <t>2:55</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shiv Sama Rahe</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hansraj Raghuwanshi</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Shiv Sama Rahe</t>
+          <t>O!RUL8,2?</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5:33</t>
+          <t>4:20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shiv Panchakshar Stotra</t>
+          <t>365247</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sachet Tandon, Parampara Tandon</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Shiv Panchakshar Stotra</t>
+          <t>The Book of Us : Entropy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3:22</t>
+          <t>2:53</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mere Bhole Nath</t>
+          <t>Future</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jubin Nautiyal</t>
+          <t>Red Velvet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mere Bhole Nath</t>
+          <t>START-UP (Original Television Soundtrack) Pt. 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3:24</t>
+          <t>3:35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shiva Mantra Ghanapaatha</t>
+          <t>SSICK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Uma Mohan</t>
+          <t>Stray Kids</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Divine Chants Of Shiva</t>
+          <t>NOEASY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5:52</t>
+          <t>3:10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mahakaal</t>
+          <t>VERY NICE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B Praak, Jaani</t>
+          <t>SEVENTEEN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mahakaal</t>
+          <t>Love&amp;Letter repackage album</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4:44</t>
+          <t>3:12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Parvati Boli Shankar Se</t>
+          <t>SWIPE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hansraj Raghuwanshi, Bharat Kamal</t>
+          <t>ITZY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parvati Boli Shankar Se</t>
+          <t>CRAZY IN LOVE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7:19</t>
+          <t>2:57</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rudrashtakam</t>
+          <t>ViViD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Agam Aggarwal</t>
+          <t>LOONA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rudrashtakam</t>
+          <t>HeeJin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5:12</t>
+          <t>3:21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Har Har Mahadev</t>
+          <t>ROCKY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sachet Tandon, Parampara Tandon, Sachet-Parampara</t>
+          <t>ATEEZ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Har Har Mahadev</t>
+          <t>ZERO : FEVER Part.3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3:15</t>
+          <t>3:08</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Har Har Shambhu</t>
+          <t>My Pace</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jubin Nautiyal, Payal Dev, Manoj Muntashir</t>
+          <t>Stray Kids</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Har Har Shambhu</t>
+          <t>SKZ2020</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Feb 13, 2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4:07</t>
+          <t>3:10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Apna Bana Le Bhole</t>
+          <t>Insanity</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sundeep Gosswami</t>
+          <t>THE BOYZ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Apna Bana Le Bhole</t>
+          <t>THE BOYZ 5th MINI ALBUM [CHASE]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4:32</t>
+          <t>3:52</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bhole Shankar</t>
+          <t>I`m a B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hansraj Raghuwanshi</t>
+          <t>HWASA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bhole Shankar</t>
+          <t>Guilty Pleasure</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3:58</t>
+          <t>2:47</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Shiv Dhun</t>
+          <t>Domino</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Agam Aggarwal, Narci, Siddharth Sharma</t>
+          <t>KAI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dev Vani</t>
+          <t>Peaches - The 2nd Mini Album</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4:09</t>
+          <t>2:55</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kaal Bhairav Ashtakam (The Beginning)</t>
+          <t>Masquerade</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sachet Tandon, Parampara Tandon, Sachet-Parampara</t>
+          <t>CHUNG HA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kaal Bhairav Ashtakam (The Beginning)</t>
+          <t>Querencia</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>Dec 11, 2021</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3:04</t>
+          <t>3:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Savage</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>aespa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Savage - The 1st Mini Album</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>STEREOTYPE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>STAYC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>STEREOTYPE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Favorite (Vampire)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NCT 127</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Favorite - The 3rd Album Repackage</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Zombie</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PURPLE KISS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>HIDE &amp; SEEK</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Heroine</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SUNMI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Heroine</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lullaby</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>IU</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Love poem</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>All Too Well (10 Minute Version) (Taylor's Version) (From The Vault)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Taylor Swift</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Red (Taylor's Version)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The Way I Loved You (Taylor’s Version)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Taylor Swift</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fearless (Taylor's Version)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELEVEN</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IVE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ELEVEN</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Dec 11, 2021</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2:58</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,7 +1275,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Om Namah Shivay</t>
+          <t>zhandu balm we have no kalm</t>
         </is>
       </c>
     </row>
@@ -1044,43 +1287,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stay blessed with these divine tunes in reverence to Lord Shiva.</t>
+          <t>playlist of all zhandu balm members</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total Saves</t>
+          <t>By User</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>37,686 saves</t>
+          <t>Ro</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Number of Songs</t>
+          <t>Total Saves</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100 songs</t>
+          <t>5 saves</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Number of Songs</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>147 songs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Total Duration</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>about 7 hr 30 min</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>about 8 hr</t>
         </is>
       </c>
     </row>
